--- a/assets/disciplinas/LOM3233.xlsx
+++ b/assets/disciplinas/LOM3233.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,7 +70,7 @@
     <t>Objetivos:</t>
   </si>
   <si>
-    <t>Fornecer ao estudante noções básicas de dispositivos digitais e suas aplicações com ênfase em microcontroladores e processadores digitais de sinais.</t>
+    <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
     <t>Objectives:</t>
@@ -79,13 +79,10 @@
     <t>Docentes responsáveis:</t>
   </si>
   <si>
-    <t>519033 - Carlos Yujiro Shigue</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Circuitos digitais. Microprocessadores e microcontroladores. Programação de sistemas de aquisição de dados e algoritmos de controle.</t>
+    <t>Semestral</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -94,9 +91,6 @@
     <t>Programa:</t>
   </si>
   <si>
-    <t>Bases numéricas. Aritmética binária. Funções lógicas. Álgebra de Boole. Minimização. Circuitos combinatórios. Flip-flops. Contadores e projeto de contadores. Introdução aos circuitos sequenciais. Microprocessadores. Microcontroladores e sistemas embarcados. Interfaces de comunicação. Linguagem de programação de baixo e alto nível na computação em tempo real. Desenvolvimento de protocolos de comando digital. Projeto com dispositivos programáveis: microcontroladores e processadores de sinais digitais. Programação de dispositivos FPGA.</t>
-  </si>
-  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -106,32 +100,22 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Critério:</t>
+  </si>
+  <si>
     <t>Aulas expositivas, exercícios em sala, lista de exercícios, utilização de um simulador de circuitos, projeto de circuitos e atividades práticas em laboratório.</t>
   </si>
   <si>
-    <t>Critério:</t>
+    <t>Norma de recuperação:</t>
   </si>
   <si>
     <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
   </si>
   <si>
-    <t>Norma de recuperação:</t>
+    <t>Bibliografia:</t>
   </si>
   <si>
     <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
-  </si>
-  <si>
-    <t>Bibliografia:</t>
-  </si>
-  <si>
-    <t>GAJSKI, D. D. Principles of Digital Design, Prentice Hall, 1997.
-TAUB, H. Circuitos Digitais e Microprocessadores, McGraw Hill, 1984.
-TOCCI, R. J.; AMBROSIO, F. J. Microprocessors and Microcomputers: Hardware and Software, Prentice Hall, 2002.
-CATSOULIS, J. Designing Embedded Hardware, OReilly Media, 2005.
-CRISP, J. Introduction to Microprocessors, Newnes, 2004.
-WILMSHURST, T. Designing Embedded Systems with PIC Microcontrollers, Newnes, 2009.
-DUBEY, R. Introduction to Embedded System Design using Field Programmable Gate Arrays, Springer, 2008.
-BATEMAN, A.; PATERSON-STEPHENS, I. The DSP Handbook: Algorithms, Applications and Design Techniques, Prentice Hall, 2002.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -498,7 +482,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C25"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -623,114 +607,106 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" ht="60" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="60" customHeight="1">
+    </row>
+    <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>24</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="2" t="s">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="120" customHeight="1">
-      <c r="A17" s="1" t="s">
+    </row>
+    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="1" t="s">
-        <v>28</v>
+      <c r="B18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="C19" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="C20" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="120" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="60" customHeight="1">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="C21" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="120" customHeight="1">
-      <c r="A22" s="1" t="s">
+    </row>
+    <row r="23" spans="1:3" ht="30" customHeight="1">
+      <c r="B23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="1" t="s">
-        <v>37</v>
+      <c r="C23" s="3" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="30" customHeight="1">
       <c r="B24" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="30" customHeight="1">
-      <c r="B25" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3233.xlsx
+++ b/assets/disciplinas/LOM3233.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -121,11 +121,7 @@
     <t>Requisitos:</t>
   </si>
   <si>
-    <t xml:space="preserve">LOM3206 -  Eletrônica  (Requisito)
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LOM3221 -  Laboratório de Eletrônica  (Requisito)
+    <t xml:space="preserve">LOM3263 -  Eletrônica Fundamental e Aplicada  (Requisito)
 </t>
   </si>
 </sst>
@@ -482,7 +478,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -701,14 +697,6 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" customHeight="1">
-      <c r="B24" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/disciplinas/LOM3233.xlsx
+++ b/assets/disciplinas/LOM3233.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -58,7 +58,7 @@
     <t>Ativação:</t>
   </si>
   <si>
-    <t>01/01/2012</t>
+    <t>01/01/2023</t>
   </si>
   <si>
     <t>Semestre ideal:</t>
@@ -76,6 +76,9 @@
     <t>Objectives:</t>
   </si>
   <si>
+    <t>Provide the student with the basics of digital devices and their applications with an emphasis on microcontrollers and digital signal processors.</t>
+  </si>
+  <si>
     <t>Docentes responsáveis:</t>
   </si>
   <si>
@@ -88,10 +91,16 @@
     <t>Short syllabus:</t>
   </si>
   <si>
+    <t>Digital circuits. Microprocessors and microcontrollers. Programming of data acquisition systems and control algorithms.</t>
+  </si>
+  <si>
     <t>Programa:</t>
   </si>
   <si>
     <t>Syllabus:</t>
+  </si>
+  <si>
+    <t>Numerical bases. Binary arithmetic. Logical functions. Boolean algebra. Minimization. Combinatorial circuits. flip-flops. Accountants and Accountants Design. Introduction to sequential circuits. Microprocessors. Microcontrollers and embedded systems. Communication interfaces. Low-level and high-level programming language in real-time computing. Development of digital command protocols. Project with programmable devices: microcontrollers and digital signal processors. Programming of FPGA devices.</t>
   </si>
   <si>
     <t>Avaliação:</t>
@@ -597,31 +606,43 @@
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="60" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="120" customHeight="1">
       <c r="A15" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>14</v>
@@ -632,17 +653,23 @@
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
       <c r="A16" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="60" customHeight="1">
       <c r="A18" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>18</v>
@@ -653,48 +680,48 @@
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="120" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="30" customHeight="1">
       <c r="B23" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/assets/disciplinas/LOM3233.xlsx
+++ b/assets/disciplinas/LOM3233.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="42">
   <si>
     <t>Ementa atual:</t>
   </si>
@@ -70,22 +70,25 @@
     <t>Objetivos:</t>
   </si>
   <si>
+    <t>Fornecer ao estudante noções básicas de dispositivos digitais e suas aplicações com ênfase em microcontroladores e processadores digitais de sinais.</t>
+  </si>
+  <si>
+    <t>Objectives:</t>
+  </si>
+  <si>
+    <t>Provide the student with the basics of digital devices and their applications with an emphasis on microcontrollers and digital signal processors.</t>
+  </si>
+  <si>
+    <t>Docentes responsáveis:</t>
+  </si>
+  <si>
     <t>519033 - Carlos Yujiro Shigue</t>
   </si>
   <si>
-    <t>Objectives:</t>
-  </si>
-  <si>
-    <t>Provide the student with the basics of digital devices and their applications with an emphasis on microcontrollers and digital signal processors.</t>
-  </si>
-  <si>
-    <t>Docentes responsáveis:</t>
-  </si>
-  <si>
     <t>Programa resumido:</t>
   </si>
   <si>
-    <t>Semestral</t>
+    <t>Circuitos digitais. Microprocessadores e microcontroladores. Programação de sistemas de aquisição de dados e algoritmos de controle.</t>
   </si>
   <si>
     <t>Short syllabus:</t>
@@ -97,6 +100,9 @@
     <t>Programa:</t>
   </si>
   <si>
+    <t>Bases numéricas. Aritmética binária. Funções lógicas. Álgebra de Boole. Minimização. Circuitos combinatórios. Flip-flops. Contadores e projeto de contadores. Introdução aos circuitos sequenciais. Microprocessadores. Microcontroladores e sistemas embarcados. Interfaces de comunicação. Linguagem de programação de baixo e alto nível na computação em tempo real. Desenvolvimento de protocolos de comando digital. Projeto com dispositivos programáveis: microcontroladores e processadores de sinais digitais. Programação de dispositivos FPGA.</t>
+  </si>
+  <si>
     <t>Syllabus:</t>
   </si>
   <si>
@@ -109,22 +115,32 @@
     <t>Método:</t>
   </si>
   <si>
+    <t>Aulas expositivas, exercícios em sala, lista de exercícios, utilização de um simulador de circuitos, projeto de circuitos e atividades práticas em laboratório.</t>
+  </si>
+  <si>
     <t>Critério:</t>
   </si>
   <si>
-    <t>Aulas expositivas, exercícios em sala, lista de exercícios, utilização de um simulador de circuitos, projeto de circuitos e atividades práticas em laboratório.</t>
+    <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
   </si>
   <si>
     <t>Norma de recuperação:</t>
   </si>
   <si>
-    <t>Média ponderada de duas provas escritas, trabalhos e relatórios: P1, P2 e TR. Conceito Final = (P1 + 2P2 + TR)/4</t>
+    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
   </si>
   <si>
     <t>Bibliografia:</t>
   </si>
   <si>
-    <t>Aplicação de uma prova escrita dentro do prazo regimental antes do início do próximo semestre letivo. A nota da segunda avaliação será a média aritmética entre a nota da prova de recuperação e a nota final da primeira avaliação</t>
+    <t>GAJSKI, D. D. Principles of Digital Design, Prentice Hall, 1997.
+TAUB, H. Circuitos Digitais e Microprocessadores, McGraw Hill, 1984.
+TOCCI, R. J.; AMBROSIO, F. J. Microprocessors and Microcomputers: Hardware and Software, Prentice Hall, 2002.
+CATSOULIS, J. Designing Embedded Hardware, OReilly Media, 2005.
+CRISP, J. Introduction to Microprocessors, Newnes, 2004.
+WILMSHURST, T. Designing Embedded Systems with PIC Microcontrollers, Newnes, 2009.
+DUBEY, R. Introduction to Embedded System Design using Field Programmable Gate Arrays, Springer, 2008.
+BATEMAN, A.; PATERSON-STEPHENS, I. The DSP Handbook: Algorithms, Applications and Design Techniques, Prentice Hall, 2002.</t>
   </si>
   <si>
     <t>Requisitos:</t>
@@ -487,13 +503,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="60.7109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="60.7109375" style="3" customWidth="1"/>
   </cols>
@@ -618,37 +634,34 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="60" customHeight="1">
-      <c r="A13" s="1" t="s">
+    <row r="13" spans="1:3">
+      <c r="B13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C13" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="60" customHeight="1">
       <c r="A14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="60" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="120" customHeight="1">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>14</v>
-      </c>
       <c r="C15" s="3" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="120" customHeight="1">
@@ -662,66 +675,77 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" ht="120" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" ht="60" customHeight="1">
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="60" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="60" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="120" customHeight="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="60" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="120" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="30" customHeight="1">
-      <c r="B23" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="3" t="s">
-        <v>38</v>
+      <c r="B22" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="30" customHeight="1">
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
